--- a/DB/DB schema.xlsx
+++ b/DB/DB schema.xlsx
@@ -25,24 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6" count="6">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Bike_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13" count="13">
+  <si>
+    <t>ss_id</t>
+  </si>
+  <si>
+    <t>customer_id</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>mobile_alt</t>
+  </si>
+  <si>
+    <t>bike_id</t>
+  </si>
+  <si>
     <t>brand_id</t>
   </si>
   <si>
-    <t>ss_id</t>
-  </si>
-  <si>
-    <t>feature_id</t>
+    <t>booking_id</t>
+  </si>
+  <si>
+    <t>Servicing_Status</t>
+  </si>
+  <si>
+    <t>service_rating</t>
   </si>
 </sst>
 </file>
@@ -142,10 +163,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B2:P32"/>
+  <dimension ref="B2:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0" tabSelected="1">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="D16" workbookViewId="0" tabSelected="1">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -162,7 +183,7 @@
     <row r="2" spans="2:16">
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Service_Station</t>
+          <t>Service_Stations</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
@@ -190,16 +211,16 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Role_id</t>
-        </is>
+      <c r="F3" s="0" t="s">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
         <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Bike_id</t>
+        </is>
       </c>
       <c r="P3" s="2" t="inlineStr">
         <is>
@@ -213,44 +234,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>first_name</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+          <t>role_id</t>
+        </is>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>Area*</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Brand_id</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>Area*</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>last_name</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Bike number</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -262,138 +273,161 @@
     <row r="6" spans="2:16">
       <c r="B6" t="inlineStr">
         <is>
-          <t>contact_no</t>
+          <t>contact_ph</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>mobile_no</t>
-        </is>
-      </c>
-      <c r="L6" s="0"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>address_id</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>Weekly_off*</t>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>bike_number</t>
         </is>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="B8" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Phone</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>bike_id</t>
+          <t>address_id</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>purchase_year</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>Weekly_off*</t>
         </is>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="B9" t="inlineStr">
         <is>
-          <t>siteaddress</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>loginid</t>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>puc_date</t>
         </is>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="B10" t="inlineStr">
         <is>
-          <t>logopath</t>
+          <t>website</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>Roles*</t>
+          <t>login_id</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>should_remind_puc</t>
         </is>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" t="inlineStr">
         <is>
+          <t>logo_path</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>insuarance_expiry_date</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>Roles*</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
+      <c r="B12" t="inlineStr">
+        <is>
           <t>area_id</t>
         </is>
       </c>
-      <c r="I11" s="0" t="inlineStr">
+      <c r="I12" s="0" t="inlineStr">
         <is>
           <t>credit_amount</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>should_remind_inssurance</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="2:16">
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
+    <row r="13" spans="2:16">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
         <is>
           <t>ss_holidays</t>
         </is>
       </c>
-      <c r="I12" s="0" t="inlineStr">
-        <is>
-          <t>no_services</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>should_notify</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>Manager</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>ss_associate_id</t>
-        </is>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>favourite_ss_id</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Accountant</t>
         </is>
       </c>
     </row>
@@ -403,22 +437,25 @@
           <t>weekly_off_id</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
+      <c r="F14" t="s">
+        <v>0</v>
       </c>
       <c r="I14" s="0"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Accountant</t>
+        </is>
+      </c>
     </row>
     <row r="15" spans="2:16">
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>ss_timing</t>
+          <t>timing</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>is_recursive</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I15" s="0"/>
@@ -426,7 +463,12 @@
     <row r="16" spans="2:16">
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>ss_type_code</t>
+          <t>ss_type_id</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>is_recursive</t>
         </is>
       </c>
       <c r="I16" s="0"/>
@@ -437,6 +479,11 @@
           <t>about_team</t>
         </is>
       </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>favourite_ss_id</t>
+        </is>
+      </c>
     </row>
     <row r="18" spans="2:16">
       <c r="B18" s="0" t="inlineStr">
@@ -444,71 +491,60 @@
           <t>about_workshop</t>
         </is>
       </c>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>servicing _status*</t>
-        </is>
-      </c>
     </row>
     <row r="19" spans="2:16">
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>features_list</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>Brands*</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Not Started</t>
+          <t>facilities</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>servicing _status*</t>
         </is>
       </c>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>facilities</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>Service_Bookings</t>
-        </is>
-      </c>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="N20" s="0" t="s">
-        <v>3</v>
+          <t>pick_drop_km</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>Brands*</t>
+        </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Bike received</t>
+          <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>pick_drop_km</t>
-        </is>
-      </c>
-      <c r="F21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>Customer_address</t>
-        </is>
-      </c>
+          <t>pick_drop_charges</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Service_Bookings</t>
+        </is>
+      </c>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
       <c r="N21" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>In Progress</t>
+          <t>Bike received</t>
         </is>
       </c>
     </row>
@@ -518,38 +554,61 @@
           <t>register_time</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Cusomer_id</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Address_id</t>
-        </is>
-      </c>
-      <c r="N22" s="0"/>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>Customer_address</t>
+        </is>
+      </c>
+      <c r="N22" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Test Drive</t>
+          <t>In Progress</t>
         </is>
       </c>
     </row>
     <row r="23" spans="2:16">
       <c r="B23" t="inlineStr">
         <is>
-          <t>is_verified</t>
-        </is>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
+          <t>verify_time</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cusomer_id</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>Address_id</t>
+        </is>
+      </c>
+      <c r="N23" s="0"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Test Drive</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>approve_time</t>
+        </is>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>Customer_id</t>
         </is>
       </c>
-      <c r="N23" s="2" t="inlineStr">
+      <c r="N24" s="2" t="inlineStr">
         <is>
           <r>
             <rPr>
@@ -563,36 +622,9 @@
           </r>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>is_approved</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>register_date</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Home address</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Hero</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Delivered</t>
         </is>
       </c>
     </row>
@@ -602,19 +634,22 @@
           <t>latitude</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>booking_date</t>
-        </is>
+      <c r="F25" t="s">
+        <v>5</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Office Address</t>
+          <t>Home address</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Bajaj</t>
+          <t>Hero</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Delivered</t>
         </is>
       </c>
     </row>
@@ -624,92 +659,251 @@
           <t>longitude</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Office Address</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Bajaj</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>updatedAt</t>
+        </is>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Service Address</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Yamaha</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>ss_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>createdAt</t>
+        </is>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Suzuki</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Authorized</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="0"/>
+      <c r="F29" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>mahindra</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Specialized</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="F30" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>General</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>is_free_service</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>Features*</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>(list of feature of ss)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Quotations</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>customer_notes</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>feature_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>coupon_id</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>feature_details</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>bike_running_km</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>register_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>booking_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
+      <c r="F37" t="inlineStr">
         <is>
           <t>delivery_date</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Service Address</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Yamaha</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>ss_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>service_Status_id</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Suzuki</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Authorized</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="F28" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>mahindra</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Specialized</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>Features*</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>(list of feature of ss)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Quotations</t>
-        </is>
-      </c>
-      <c r="K31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>feature_details</t>
+    </row>
+    <row r="38" spans="2:16">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>is_regular_service</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>service_feedback</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>service_status_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>job_card_number</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>update_time</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>servicing_by</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>status_comment</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>bill_no</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>bill_amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>pending_work</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="2:16">
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ss_recomendation</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>current_service_status_id</t>
         </is>
       </c>
     </row>
